--- a/output/2016-10-01 to 2016-11-01.xlsx
+++ b/output/2016-10-01 to 2016-11-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -86,6 +86,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-08-101-01</t>
   </si>
   <si>
@@ -96,6 +99,18 @@
   </si>
   <si>
     <t>2016-10-103-01</t>
+  </si>
+  <si>
+    <t>['HYUNG-JIN YOON', 'Kristian Lauszus', 'Ishaan Pakrasi', 'Arun Lakshmanan']</t>
+  </si>
+  <si>
+    <t>['Harshal Maske']</t>
+  </si>
+  <si>
+    <t>['Jonathan Hoff']</t>
+  </si>
+  <si>
+    <t>['Usman Syed']</t>
   </si>
   <si>
     <t>cfop_NH</t>
@@ -724,13 +739,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>21</v>
       </c>
@@ -740,13 +755,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -754,13 +772,16 @@
       <c r="D2">
         <v>70.90909090909091</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -768,13 +789,16 @@
       <c r="D3">
         <v>14.54545454545454</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -782,19 +806,25 @@
       <c r="D4">
         <v>10.90909090909091</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
         <v>3.636363636363636</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -840,7 +870,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>16</v>
@@ -854,7 +884,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4">
         <v>16</v>
